--- a/pred_ohlcv/54_21/2020-01-11 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BCH ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-102.26156465</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-114.3468646499999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-89.07436464999995</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-109.33086465</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-109.73086465</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-59.37093622999997</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-59.37093622999997</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-59.37093622999997</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-55.23683622999997</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-55.36563622999996</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-55.36563622999996</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-55.36563622999996</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-55.36563622999996</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-49.71183622999996</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-49.70783622999996</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-49.70783622999996</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-49.70783622999996</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-50.08823622999996</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>86.25156377000003</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>105.87806377</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>105.87806377</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>85.99886377000003</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1518.31034869</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1676.39164869</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1737.93046212</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1344.45333709</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2134.24713709</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2039.98573709</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2062.96230237</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1965.80570237</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1965.80570237</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2020.44410237</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>1992.00310395</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>1953.92260395</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>1840.61670395</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1804.47140395</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1700.28920395</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1609.84860395</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1717.99210395</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1708.44270395</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1662.55047027</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1599.78767027</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1870.96277027</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1824.85207027</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1881.95677027</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1836.55627027</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1855.46127027</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>1922.79477027</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>1911.84907171</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>1981.89987315</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2031.52347315</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2155.07527315</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2066.00897315</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2085.11794949</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2085.11794949</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>2206.247049489999</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>3037.25598954</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>2842.46473956</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>2807.43033956</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>2930.611439559999</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3163.362699639999</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3209.098299639999</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3209.098299639999</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3182.91109964</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3003.309399639999</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3069.21364309</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3104.932743089999</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3020.86564309</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3069.01832431</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>3177.92012431</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>3169.62592431</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>3081.45762431</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>2911.84912431</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>2723.33202431</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>2868.53462431</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>2966.25862431</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>2963.92442431</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>2960.76742431</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>2990.40812431</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>3030.81417974</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>3030.81417974</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>3029.90897974</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>3027.50897974</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>3087.05057974</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>3103.572079739999</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>3281.021279739999</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>3510.45792431</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>3479.60642431</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>3527.617624309999</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>3531.35152431</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>3468.260096609999</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>3468.260096609999</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>3437.24605144</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BCH ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-151.50636465</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-102.26156465</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-90.31046464999997</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-90.31046464999997</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-103.3394646499999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-114.3468646499999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-86.11626464999995</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-89.07436464999995</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>105.87806377</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>105.87806377</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>85.99886377000003</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1518.31034869</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1676.39164869</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1737.93046212</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1344.45333709</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2134.24713709</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2039.98573709</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2062.96230237</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1965.80570237</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1965.80570237</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2020.44410237</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>1992.00310395</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>1953.92260395</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>1840.61670395</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1804.47140395</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1700.28920395</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1609.84860395</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1717.99210395</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1708.44270395</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1662.55047027</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1599.78767027</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1870.96277027</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1824.85207027</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1881.95677027</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1836.55627027</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1855.46127027</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>1922.79477027</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>1911.84907171</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>1981.89987315</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2031.52347315</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2155.07527315</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2066.00897315</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2085.11794949</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2085.11794949</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>2206.247049489999</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>2971.545689539999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>3037.25598954</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>2842.46473956</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>2807.43033956</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>2930.611439559999</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3163.362699639999</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3209.098299639999</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3209.098299639999</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3182.91109964</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3003.309399639999</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3069.21364309</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3104.932743089999</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3055.730243089999</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3020.86564309</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3069.01832431</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>3177.92012431</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>3169.62592431</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>3081.45762431</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>2911.84912431</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>2723.33202431</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>2868.53462431</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>2966.25862431</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>2963.92442431</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>2960.76742431</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>2990.40812431</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>3030.81417974</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>3030.81417974</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>3029.90897974</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>3027.50897974</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>3087.05057974</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>3103.572079739999</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>3281.021279739999</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>3510.45792431</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>3479.60642431</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>3527.617624309999</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>3437.24605144</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
